--- a/example/MetaData/Item.xlsx
+++ b/example/MetaData/Item.xlsx
@@ -560,7 +560,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
